--- a/plots/countries/plot data/Denmark.xlsx
+++ b/plots/countries/plot data/Denmark.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>13.8306497717306</v>
+        <v>14.5942991944353</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>9.18151794813891</v>
+        <v>9.18153126492278</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.670208335256557</v>
+        <v>0.67034094009935</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>10.7397545542829</v>
+        <v>10.7403944208174</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>2.02490567350305</v>
+        <v>2.02490413057805</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>6.69396757784323</v>
+        <v>6.69929990138493</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95998631510516</v>
+        <v>2.03362984861176</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>13.7205944390266</v>
+        <v>14.4904970780527</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>9.62268219489665</v>
+        <v>9.62271975940402</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>1.05747097596216</v>
+        <v>1.05764429645829</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>11.2479911447656</v>
+        <v>11.2487964923365</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>2.16732727284898</v>
+        <v>2.16732955637798</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>6.02734341143006</v>
+        <v>5.96913171073907</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>1.93585213793344</v>
+        <v>2.01710860894615</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>13.5921107719203</v>
+        <v>14.3729960183074</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>8.67832583343053</v>
+        <v>8.67834986257017</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>1.09939282893772</v>
+        <v>1.0995603159315</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>11.4442906126384</v>
+        <v>11.4438425623197</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>2.25854947479654</v>
+        <v>2.25855157317454</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>6.93553133717289</v>
+        <v>6.88164540870588</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>1.91313983005819</v>
+        <v>1.91700751297083</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>13.5872335736891</v>
+        <v>14.3834428408649</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>9.5523100260887</v>
+        <v>9.55232928725791</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1.00943255101724</v>
+        <v>1.00958004055835</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>11.490593798676</v>
+        <v>11.4884081509016</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>2.34881113628477</v>
+        <v>2.34881027224677</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>5.6137240722656</v>
+        <v>5.55832950348405</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>1.81029301557669</v>
+        <v>1.87935019594364</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>13.4202741077976</v>
+        <v>14.2019817313513</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>8.98665990873399</v>
+        <v>8.98665486450396</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>1.01609574681188</v>
+        <v>1.01623509261314</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>11.9125551134957</v>
+        <v>11.9102770462726</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>2.48515768647784</v>
+        <v>2.48515577325085</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>5.13697730516741</v>
+        <v>5.07088682030407</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>1.7339250000818</v>
+        <v>1.78008058470054</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>13.4775557051417</v>
+        <v>14.2544288251959</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>9.14981249472159</v>
+        <v>9.14983212757792</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.886807159737451</v>
+        <v>0.886968871804832</v>
       </c>
     </row>
     <row r="50">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>12.0410551023332</v>
+        <v>12.0390184400978</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>2.71351695196788</v>
+        <v>2.71351398955188</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>5.31732822205996</v>
+        <v>5.26875965162146</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>1.62536944988284</v>
+        <v>1.65096851980902</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>13.0861238060939</v>
+        <v>13.8616566364115</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>9.72348951542905</v>
+        <v>9.72349612844611</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.949262349518278</v>
+        <v>0.949397626776226</v>
       </c>
     </row>
     <row r="59">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>12.2987293223434</v>
+        <v>12.2961285164845</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>2.84029653256888</v>
+        <v>2.84029344671888</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>4.60336532228864</v>
+        <v>4.55683230397654</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>1.54663198955782</v>
+        <v>1.57142939037298</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>13.1196787008198</v>
+        <v>13.8884727701972</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>8.92121681857541</v>
+        <v>8.92124067523347</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>1.21863316105089</v>
+        <v>1.21877143050947</v>
       </c>
     </row>
     <row r="68">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>12.4943625441477</v>
+        <v>12.4911793509369</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>2.87070384077967</v>
+        <v>2.87070563057266</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>5.07725635366088</v>
+        <v>5.0328036460131</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>1.45580025503654</v>
+        <v>1.48456709374306</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>13.1202765877913</v>
+        <v>13.9058855209427</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>8.74180705245982</v>
+        <v>8.74184075366859</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>1.04611334069894</v>
+        <v>1.04625851727881</v>
       </c>
     </row>
     <row r="77">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>12.4964508309443</v>
+        <v>12.4946122149234</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>3.05181893861351</v>
+        <v>3.05181832144351</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>4.99347118660983</v>
+        <v>4.94762681553748</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>1.35805296122054</v>
+        <v>1.39650592456247</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>12.7134414131303</v>
+        <v>13.4829767623817</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>8.56327123743342</v>
+        <v>8.5632945989722</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>1.71594222301415</v>
+        <v>1.71608199829833</v>
       </c>
     </row>
     <row r="86">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>12.5195198008769</v>
+        <v>12.5205247789033</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>3.29951389973511</v>
+        <v>3.29951081388511</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>5.30496707887898</v>
+        <v>5.25861965802669</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>1.35778859440267</v>
+        <v>1.40524988283056</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>12.6816335212662</v>
+        <v>13.4770679939167</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>7.97923563033678</v>
+        <v>7.97924479578075</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>1.29067285528914</v>
+        <v>1.29077191453693</v>
       </c>
     </row>
     <row r="95">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>12.3816192369998</v>
+        <v>12.3832355876361</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>3.4519822161614</v>
+        <v>3.4519795006134</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>5.08730116921204</v>
+        <v>5.04125210879497</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>1.36427539204141</v>
+        <v>1.39680465992986</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>12.733191798318</v>
+        <v>13.553451631891</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>8.14186886842623</v>
+        <v>8.14189041662473</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>1.32679684624597</v>
+        <v>1.32691675820377</v>
       </c>
     </row>
     <row r="104">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>12.431561313768</v>
+        <v>12.433395146005</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>3.31908682790428</v>
+        <v>3.31908985084526</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>4.57628972472186</v>
+        <v>4.53222219488972</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>1.34959716110459</v>
+        <v>1.37743425211225</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>12.7944047012727</v>
+        <v>13.6274370580592</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>7.81784776672592</v>
+        <v>7.8178577430333</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>1.22394876923942</v>
+        <v>1.22406237497538</v>
       </c>
     </row>
     <row r="113">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>12.5912314754454</v>
+        <v>12.5930381563854</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>3.26354676548535</v>
+        <v>3.26354910663621</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>5.64454244144681</v>
+        <v>5.60298756004297</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>1.30445072003032</v>
+        <v>1.32681097333006</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>12.5983170226714</v>
+        <v>13.4421619952731</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>7.88723269232274</v>
+        <v>7.88724295075242</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>1.18025498143805</v>
+        <v>1.18033611483769</v>
       </c>
     </row>
     <row r="122">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>13.0574088299471</v>
+        <v>13.058492697537</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>3.25868108837893</v>
+        <v>3.25867898588604</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>5.40207425384539</v>
+        <v>5.36122183091842</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>1.30364975004153</v>
+        <v>1.33569203965427</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>12.5699324841957</v>
+        <v>13.4290170362017</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>7.77062503590131</v>
+        <v>7.77064531745434</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>1.28111503038888</v>
+        <v>1.28123550131432</v>
       </c>
     </row>
     <row r="131">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>13.2817170240806</v>
+        <v>13.2829752604519</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>3.12257589986025</v>
+        <v>3.12257750203141</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>5.20301906306</v>
+        <v>5.16455670806693</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>1.13134472676948</v>
+        <v>1.16057213304036</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>12.3686785665697</v>
+        <v>13.2759268292851</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>7.65544544040604</v>
+        <v>7.65546124452701</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>1.04999047288688</v>
+        <v>1.05009471336978</v>
       </c>
     </row>
     <row r="140">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>13.4936659186138</v>
+        <v>13.4946204758052</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>2.66016266145232</v>
+        <v>2.66018445991377</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>4.97084616224715</v>
+        <v>4.92741881415804</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>1.13840348794484</v>
+        <v>1.15441160879961</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>12.0627324224784</v>
+        <v>12.9478586075943</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>7.26718011385345</v>
+        <v>7.2671868568546</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>1.01167175707889</v>
+        <v>1.01175053288678</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>13.8182020622921</v>
+        <v>13.8189717487267</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>2.7091207119769</v>
+        <v>2.709143954119</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>5.42493025485584</v>
+        <v>5.38055962280708</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>1.18190662525903</v>
+        <v>1.22983361777816</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>12.2586838297969</v>
+        <v>13.1535230764835</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>6.83101836073445</v>
+        <v>6.83102367443047</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.981254162045892</v>
+        <v>0.980647874239749</v>
       </c>
     </row>
     <row r="158">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>14.3703378084211</v>
+        <v>14.3709539769097</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>2.75766377278544</v>
+        <v>2.75768837723337</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>5.59536207453301</v>
+        <v>5.5425030001915</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>1.1587064397921</v>
+        <v>1.19668041433878</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>12.2464417782119</v>
+        <v>13.140441133429</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>6.58731948071576</v>
+        <v>6.58732320512479</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.785172174317304</v>
+        <v>0.783890247059206</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>14.1974578092701</v>
+        <v>14.1979563217442</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>2.44609756676752</v>
+        <v>2.44611696551889</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>4.09905808555952</v>
+        <v>4.03791771936947</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>1.16770057967543</v>
+        <v>1.15995281609725</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>12.0707651466531</v>
+        <v>12.9820749727821</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>6.42269021712661</v>
+        <v>6.42269758246815</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.586933420951092</v>
+        <v>0.58497801719507</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>13.4278219110591</v>
+        <v>13.428111707791</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>2.02348149577068</v>
+        <v>2.02350206113174</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>3.38231758460014</v>
+        <v>3.31763616987427</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>1.078684287992</v>
+        <v>1.12120018360049</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>12.0238109238837</v>
+        <v>12.9568221613173</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>6.58380225109583</v>
+        <v>6.58380544104901</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.679535925979281</v>
+        <v>0.676906508416802</v>
       </c>
     </row>
     <row r="185">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>13.3041887473024</v>
+        <v>13.3041902756925</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>1.81820692587572</v>
+        <v>1.81821125604691</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>2.36064477482988</v>
+        <v>2.29166349622174</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>1.0158010401001</v>
+        <v>1.03399955060546</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>11.9946325504371</v>
+        <v>12.9346874411058</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>5.90508736985661</v>
+        <v>5.90508971229496</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.521088714150501</v>
+        <v>0.517777190183271</v>
       </c>
     </row>
     <row r="194">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>12.9973804971837</v>
+        <v>12.997796188894</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>1.96322390789459</v>
+        <v>1.96321081892249</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>1.60420234190017</v>
+        <v>1.54349047553189</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>1.02650733473554</v>
+        <v>1.04022033071239</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>11.987015401772</v>
+        <v>12.9362829292396</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>5.49798549434328</v>
+        <v>5.49798237933606</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.459516901498182</v>
+        <v>0.455524831381532</v>
       </c>
     </row>
     <row r="203">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>12.4249517568417</v>
+        <v>12.4249661557311</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>2.00235276807367</v>
+        <v>2.00233511291601</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>0.989441014385359</v>
+        <v>0.973714762540182</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.998907173054795</v>
+        <v>1.00838724738946</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>11.966782893614</v>
+        <v>12.9084486260263</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>5.46862435028622</v>
+        <v>5.46856592435959</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.472512447091786</v>
+        <v>0.467840940738561</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>3.93350266993872</v>
+        <v>3.93350266993655</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>19.1282461658845</v>
+        <v>19.1282461658872</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>12.2215624601853</v>
+        <v>12.2213541129875</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>1.95810311332767</v>
+        <v>1.95808439986818</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>0.67291821359316</v>
+        <v>0.592280385487308</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.994957574265032</v>
+        <v>1.0004446546406</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>12.0864936474404</v>
+        <v>13.0321749441442</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>4.59939698060323</v>
+        <v>4.59914944583583</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.468719563930608</v>
+        <v>0.463379272495592</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>3.92203908883887</v>
+        <v>3.9282275844462</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>15.6168447754169</v>
+        <v>15.6106698650583</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>12.3300763029135</v>
+        <v>12.3303159846496</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>1.93549176441385</v>
+        <v>1.93545055796268</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.889255461263748</v>
+        <v>0.895491286626879</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.01475211176093</v>
+        <v>1.02516464679412</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>11.9653104402838</v>
+        <v>12.9013131719717</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>4.7566003913966</v>
+        <v>4.7563034858041</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.454939345280443</v>
+        <v>0.448921177892263</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>3.88577205297133</v>
+        <v>3.88568682679522</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>12.9022627982032</v>
+        <v>12.9011274487203</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>12.5131018213863</v>
+        <v>12.5133207215849</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>1.76769272093019</v>
+        <v>1.7676476816839</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.0948377328255448</v>
+        <v>-0.0559462813566275</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.01025510574746</v>
+        <v>1.01876346720423</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>12.1464714967047</v>
+        <v>13.0812659441904</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>4.810141137753</v>
+        <v>4.80942190585004</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.473503524035498</v>
+        <v>0.466812137650084</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>3.97948519514416</v>
+        <v>3.97931925125901</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>14.0827015450594</v>
+        <v>14.0803720152671</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>12.7823434922534</v>
+        <v>12.7824736234826</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>1.96148818367923</v>
+        <v>1.96143974973705</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>0.867778296160203</v>
+        <v>0.828480753756325</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.0385073414084</v>
+        <v>1.04950216802003</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>12.1799525598341</v>
+        <v>13.0846041558956</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>4.68272039887367</v>
+        <v>4.68169785166316</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.445318379026877</v>
+        <v>0.437954644738522</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>4.0578513511325</v>
+        <v>4.057212222527</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>11.6058623549329</v>
+        <v>11.6021556678152</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>12.9678230848417</v>
+        <v>12.9679334030596</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.96424217945582</v>
+        <v>1.96418213083601</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>0.715205313883328</v>
+        <v>0.68732547215077</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.05669408805642</v>
+        <v>1.06485767284917</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>12.0442224249286</v>
+        <v>12.971076896277</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>4.49191940278449</v>
+        <v>4.49025960556054</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.405145093232979</v>
+        <v>0.397108420318571</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>4.06915052753228</v>
+        <v>4.06778984798827</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>11.5221014007545</v>
+        <v>11.5174740852596</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>13.2160426145725</v>
+        <v>13.2164719975141</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>1.97081304657443</v>
+        <v>1.97077413573995</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>2.50273433341444</v>
+        <v>2.48415663245487</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.08145989653894</v>
+        <v>1.08245945145559</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>11.9349943128227</v>
+        <v>12.8050583314691</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>4.19175575226309</v>
+        <v>4.18959671860999</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.345519002650279</v>
+        <v>0.336808165265797</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>3.83790022321347</v>
+        <v>3.83588017948231</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>8.72147880776828</v>
+        <v>8.71598621039834</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>13.0125217755478</v>
+        <v>13.0129769416629</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>1.76942653643479</v>
+        <v>1.76939042067379</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>1.53096437792314</v>
+        <v>1.47543742218308</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.09385585928238</v>
+        <v>1.10024494355962</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>12.0885568430102</v>
+        <v>12.96383304551</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>3.93013081382001</v>
+        <v>3.92826168275273</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.234937004082644</v>
+        <v>0.225560260991855</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>3.72950069428938</v>
+        <v>3.72678640930101</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>7.34970799192228</v>
+        <v>7.34381621338162</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>11.9356098939143</v>
+        <v>11.9361608288969</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>1.83948532511649</v>
+        <v>1.87884281515516</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>1.2923576399464</v>
+        <v>1.22706751307803</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.14435647720544</v>
+        <v>1.15759846871579</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>11.7845403797216</v>
+        <v>12.6435349754139</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>4.01422763587513</v>
+        <v>3.95014086141521</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.220620937279465</v>
+        <v>0.210430416493634</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>3.79678849476338</v>
+        <v>3.79600308803472</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>8.32209827038643</v>
+        <v>8.30966516442904</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>12.1390530258714</v>
+        <v>12.1392322325984</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>1.7778211435387</v>
+        <v>1.81231708681199</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>0.198485852382041</v>
+        <v>0.150810999219009</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.1905417123835</v>
+        <v>1.20539255368195</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>11.5229797112472</v>
+        <v>12.2959031650368</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>3.50413517151987</v>
+        <v>3.47283451944688</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.193430042563914</v>
+        <v>0.193274301571267</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>3.48399564850881</v>
+        <v>3.48394201735403</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>8.19682207722391</v>
+        <v>8.19127165291323</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>12.0277683099709</v>
+        <v>11.9804008234746</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>1.61805977139012</v>
+        <v>1.64536611264517</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.380989634448073</v>
+        <v>-0.418284849318912</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.22216189855045</v>
+        <v>1.2312751871078</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>11.2229104327431</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.35735781962612</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.181580320809412</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3.02927868085487</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>6.54811012414793</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>11.8482406173181</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.55264414085106</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.50044898558824</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.26958160166421</v>
       </c>
     </row>
   </sheetData>
